--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vietk\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46853C87-1FD5-4EBF-B759-D626C6F8F03B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD2D5B-43AD-4F68-B5C0-A2990B736C05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,17 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Quản lí chuỗi khách sạn
-Bảng phân công nhiệm vụ </t>
-  </si>
-  <si>
-    <t>Công việc</t>
-  </si>
-  <si>
-    <t>Thành viên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -44,43 +34,86 @@
 2.Lựa chọn đề tài,  báo cáo cho giáo viên</t>
   </si>
   <si>
-    <t>Tất cả thành viên</t>
-  </si>
-  <si>
     <t>Tuần 2 ( từ : 17-9 đến 23-9)</t>
   </si>
   <si>
-    <t xml:space="preserve">Thành viên nhóm: Phạm Ngọc Hải, Trần Lâm Việt 
-Thời gian thực hiện và hoàn thành: Tuần 4 (10-9) - 11 (3-11) </t>
-  </si>
-  <si>
     <t>Tuần 3 (từ : 24-9 đến 30-9)</t>
   </si>
   <si>
+    <t>Tuần 5 ( từ : 8-10 đến 14-10)</t>
+  </si>
+  <si>
+    <t>Tuần 6 ( từ : 15-10 đến 21-10)</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Hải</t>
+  </si>
+  <si>
+    <t>Trần Lâm Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảng viên hướng dẫn : thầy Trần Công Tú
+Thời gian thực hiện và hoàn thành: Tuần 4 (10-9) - 11 (3-11) 
+Thành viên nhóm: Phạm Ngọc Hải, Trần Lâm Việt </t>
+  </si>
+  <si>
+    <t>form Mật Khẩu
+form Quên Mật Khẩu</t>
+  </si>
+  <si>
+    <t>form Đăng Kí</t>
+  </si>
+  <si>
+    <t>form Đổi Phòng
+form Hủy Phòng
+form Tùy Chọn Phòng</t>
+  </si>
+  <si>
+    <t>Tuần 7 ( từ : 22-10 đến 28-10)</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Tuần 8 ( từ : 29-10 đến 3-11)</t>
+  </si>
+  <si>
+    <t>Tuần 4 ( từ : 1-10 đến 7-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Thành viên
+Tuần</t>
+  </si>
+  <si>
     <t>1.Thiết kế , định hướng về các chức năng của chương trình
-2. Thiết kế, tạo cơ sở dữ liệu, giao diện</t>
-  </si>
-  <si>
-    <t>Tuần 4 ( từ :1-10 đến 7-10)</t>
-  </si>
-  <si>
-    <t>Tuần 5 ( từ : 8-10 đến 14-10)</t>
-  </si>
-  <si>
-    <t>Tuần 6 ( từ : 15-10 đến 21-10)</t>
-  </si>
-  <si>
-    <t>Tuần 7 ( từ 22-10 đến 28-10)</t>
-  </si>
-  <si>
-    <t>Tuần 8 ( từ :29-10 đén 3-11)</t>
+2. Thiết kế, tạo cơ sở dữ liệu, giao diện
+3. Tạo file excel , word báo cáo cho giảng viên</t>
+  </si>
+  <si>
+    <t>Đồ án 1: Quản lí chuỗi khách sạn (c#)
+Bảng phân công nhiệm vụ theo tuần</t>
+  </si>
+  <si>
+    <t>load danh sách phòng trong form Giao Diện Khách Hàng
+form Quản Lí Tài Khoản 
+form Đổi Mật Khẩu
+form Đặt Phòng</t>
+  </si>
+  <si>
+    <t>Các thành viên cùng kiểm tra lại code và fix các lỗi
+(nếu hoàn thành sớm có thể làm các việc của tuần 6 )</t>
+  </si>
+  <si>
+    <t>Các thành viên cùng kiểm tra lại code và fix các lỗi 
+Làm báo cáo cuối cùng
+Nộp trước cho giảng viên xem xét</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +128,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,11 +172,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -124,14 +266,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,20 +636,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8310FC-ACFC-4124-9B7F-15738ED71B45}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="48" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -472,125 +663,139 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -598,7 +803,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -615,31 +821,22 @@
       <c r="G14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="15">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doan1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD2D5B-43AD-4F68-B5C0-A2990B736C05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B230E06-2131-4E4F-B7C5-332EE9601EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -52,21 +52,11 @@
     <t>Trần Lâm Việt</t>
   </si>
   <si>
-    <t xml:space="preserve">Giảng viên hướng dẫn : thầy Trần Công Tú
-Thời gian thực hiện và hoàn thành: Tuần 4 (10-9) - 11 (3-11) 
-Thành viên nhóm: Phạm Ngọc Hải, Trần Lâm Việt </t>
-  </si>
-  <si>
     <t>form Mật Khẩu
 form Quên Mật Khẩu</t>
   </si>
   <si>
     <t>form Đăng Kí</t>
-  </si>
-  <si>
-    <t>form Đổi Phòng
-form Hủy Phòng
-form Tùy Chọn Phòng</t>
   </si>
   <si>
     <t>Tuần 7 ( từ : 22-10 đến 28-10)</t>
@@ -94,12 +84,6 @@
 Bảng phân công nhiệm vụ theo tuần</t>
   </si>
   <si>
-    <t>load danh sách phòng trong form Giao Diện Khách Hàng
-form Quản Lí Tài Khoản 
-form Đổi Mật Khẩu
-form Đặt Phòng</t>
-  </si>
-  <si>
     <t>Các thành viên cùng kiểm tra lại code và fix các lỗi
 (nếu hoàn thành sớm có thể làm các việc của tuần 6 )</t>
   </si>
@@ -107,6 +91,33 @@
     <t>Các thành viên cùng kiểm tra lại code và fix các lỗi 
 Làm báo cáo cuối cùng
 Nộp trước cho giảng viên xem xét</t>
+  </si>
+  <si>
+    <t>Giảng viên hướng dẫn : thầy Trần Công Tú
+Thời gian thực hiện và hoàn thành: Tuần 4 (10-9) - 11 (3-11) 
+Thành viên nhóm: Phạm Ngọc Hải, Trần Lâm Việt 
+Link github: https://github.com/vietter/doan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load danh sách phòng trong form Giao Diện Khách Hàng
+form Quản Lí Tài Khoản 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+form Tùy Chọn Phòng
+form Hủy Phòng
+form Đổi Mật Khẩu</t>
+  </si>
+  <si>
+    <t>form Đặt Phòng
+form Thanh Toán
+kiểm tra xem xét thêm sửa xóa lại các chức năng khác</t>
+  </si>
+  <si>
+    <t>form Đổi Phòng
+load danh sách các phòng và các yêu cầu của khách trong form Giao Diện Quản Lí
+kiểm tra xem xét thêm sửa xóa lại các chức năng khác</t>
   </si>
 </sst>
 </file>
@@ -266,59 +277,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8310FC-ACFC-4124-9B7F-15738ED71B45}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,152 +658,156 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="48" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -822,13 +837,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -837,6 +845,13 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B230E06-2131-4E4F-B7C5-332EE9601EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBD3F3-89EB-49DD-8494-CC030C718175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -73,11 +73,6 @@
   <si>
     <t xml:space="preserve">                Thành viên
 Tuần</t>
-  </si>
-  <si>
-    <t>1.Thiết kế , định hướng về các chức năng của chương trình
-2. Thiết kế, tạo cơ sở dữ liệu, giao diện
-3. Tạo file excel , word báo cáo cho giảng viên</t>
   </si>
   <si>
     <t>Đồ án 1: Quản lí chuỗi khách sạn (c#)
@@ -118,6 +113,21 @@
     <t>form Đổi Phòng
 load danh sách các phòng và các yêu cầu của khách trong form Giao Diện Quản Lí
 kiểm tra xem xét thêm sửa xóa lại các chức năng khác</t>
+  </si>
+  <si>
+    <t>Tiến độ</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Đang tiến hành</t>
+  </si>
+  <si>
+    <t>1.Phân tích thực tiễn, tìm hiểu về các hệ thống đặt phòng qua mạng
+2.Thiết kế , định hướng về các chức năng của chương trình
+3. Thiết kế, tạo cơ sở dữ liệu, giao diện
+4. Tạo file excel , word báo cáo cho giảng viên</t>
   </si>
 </sst>
 </file>
@@ -269,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,11 +297,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,29 +344,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="37"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8310FC-ACFC-4124-9B7F-15738ED71B45}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,157 +675,173 @@
     <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="61.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -818,7 +850,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -827,7 +859,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -837,6 +869,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -846,12 +884,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBD3F3-89EB-49DD-8494-CC030C718175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DF11F-5794-4AB0-8032-9D2AD4955F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Đang tiến hành</t>
   </si>
   <si>
-    <t>1.Phân tích thực tiễn, tìm hiểu về các hệ thống đặt phòng qua mạng
+    <t>1.Phân tích thực tiễn, tìm hiểu về các hệ thống đặt phòng qua mạng trên thị trường
 2.Thiết kế , định hướng về các chức năng của chương trình
 3. Thiết kế, tạo cơ sở dữ liệu, giao diện
 4. Tạo file excel , word báo cáo cho giảng viên</t>
@@ -299,6 +299,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="37"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
@@ -308,12 +332,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -328,24 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +664,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,42 +680,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -723,14 +723,14 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
@@ -739,106 +739,108 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,12 +871,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -884,6 +880,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DF11F-5794-4AB0-8032-9D2AD4955F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E5847-6BFD-475E-AFCF-597795B1B240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -302,12 +302,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,30 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +664,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,41 +680,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
@@ -723,14 +723,14 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
@@ -739,14 +739,14 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>24</v>
       </c>
@@ -755,92 +755,94 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -871,6 +873,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -880,12 +888,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E5847-6BFD-475E-AFCF-597795B1B240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99C2C2-9BCF-4493-9B2A-CB98159B9C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -128,13 +128,95 @@
 2.Thiết kế , định hướng về các chức năng của chương trình
 3. Thiết kế, tạo cơ sở dữ liệu, giao diện
 4. Tạo file excel , word báo cáo cho giảng viên</t>
+  </si>
+  <si>
+    <t>17-9
+23-9</t>
+  </si>
+  <si>
+    <t>Từ 10-9 
+Đến 16-9</t>
+  </si>
+  <si>
+    <t>Từ 17-9
+Đến 23-9</t>
+  </si>
+  <si>
+    <t>Từ 24-9
+Đến 30-9</t>
+  </si>
+  <si>
+    <t>Từ 1-10
+Đến 7-10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thời gian </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dự kiến</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+bắt đầu/ kết thúc </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thời gian</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thực tế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+bắt đầu/ kết thúc</t>
+    </r>
+  </si>
+  <si>
+    <t>Từ 8-10
+Đến 14-10</t>
+  </si>
+  <si>
+    <t>Từ 15-10
+Đến 21-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +258,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,6 +399,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="37"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
@@ -311,12 +432,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -332,20 +447,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="37"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8310FC-ACFC-4124-9B7F-15738ED71B45}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,176 +788,220 @@
     <col min="5" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="61.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="6" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="6" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="27">
+        <v>43374</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -854,7 +1010,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -863,7 +1019,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -873,12 +1029,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -888,6 +1038,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\doan1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99C2C2-9BCF-4493-9B2A-CB98159B9C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219017EC-E83A-4B5B-B712-7876FD199792}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Đang tiến hành</t>
   </si>
   <si>
     <t>1.Phân tích thực tiễn, tìm hiểu về các hệ thống đặt phòng qua mạng trên thị trường
@@ -402,12 +399,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,42 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,7 +773,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,46 +791,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>23</v>
@@ -843,19 +840,19 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>28</v>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>24</v>
@@ -865,19 +862,19 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>24</v>
@@ -887,21 +884,21 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>30</v>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>24</v>
@@ -911,40 +908,40 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="27">
-        <v>43374</v>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="12">
+        <v>43379</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="25" t="s">
-        <v>34</v>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="6"/>
@@ -953,18 +950,18 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="25" t="s">
-        <v>35</v>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="6"/>
@@ -973,14 +970,14 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="6"/>
@@ -989,14 +986,14 @@
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="6"/>
@@ -1029,6 +1026,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -1038,12 +1041,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219017EC-E83A-4B5B-B712-7876FD199792}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5610E5-D4A9-45D5-A663-1D02D18B00D4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -207,6 +207,13 @@
   <si>
     <t>Từ 15-10
 Đến 21-10</t>
+  </si>
+  <si>
+    <t>Từ 8-10
+Đến 13-10</t>
+  </si>
+  <si>
+    <t>đang thực hiện</t>
   </si>
 </sst>
 </file>
@@ -373,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -408,8 +415,26 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="39"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="37"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
@@ -420,12 +445,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,21 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="39"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="37"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +777,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,41 +795,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="9" t="s">
         <v>31</v>
       </c>
@@ -840,14 +844,14 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
@@ -862,14 +866,14 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="10" t="s">
         <v>28</v>
       </c>
@@ -884,16 +888,16 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
@@ -908,21 +912,21 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="12">
-        <v>43379</v>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>24</v>
@@ -932,52 +936,58 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="6"/>
@@ -986,14 +996,14 @@
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="6"/>
@@ -1026,12 +1036,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -1041,6 +1045,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/applicationdevelopment_Plan.xlsx
+++ b/applicationdevelopment_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\doan1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99C2C2-9BCF-4493-9B2A-CB98159B9C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0A066A-F06A-4D43-AA55-2CB05B4570E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{242EC1AE-BBF3-4865-BF1E-800EAC738EAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Tuần 1 ( từ : 10-9 đến 16-9)</t>
   </si>
@@ -210,6 +210,10 @@
   <si>
     <t>Từ 15-10
 Đến 21-10</t>
+  </si>
+  <si>
+    <t>Từ 23-10
+Đến 27-10</t>
   </si>
 </sst>
 </file>
@@ -376,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -402,12 +406,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,42 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="37"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="38"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8310FC-ACFC-4124-9B7F-15738ED71B45}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,45 +795,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -843,18 +844,18 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="25" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -865,18 +866,18 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="25" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -887,20 +888,20 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -911,92 +912,104 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="26" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="27">
-        <v>43374</v>
+      <c r="I7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="25" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="25" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="6"/>
@@ -1029,6 +1042,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -1038,12 +1057,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
